--- a/Interview_Task.xlsx
+++ b/Interview_Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20610" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="117">
   <si>
     <t>E-Commerce Test_Scenarios</t>
   </si>
@@ -73,31 +73,16 @@
     <t>Confirmation Mail</t>
   </si>
   <si>
-    <t>Test Case Templete</t>
-  </si>
-  <si>
     <t>E - Commerce</t>
-  </si>
-  <si>
-    <t>Status:</t>
   </si>
   <si>
     <t>6.1.0</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Test Account</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Automation Practice</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Testing Group</t>
@@ -141,11 +126,6 @@
   </si>
   <si>
     <t>Verify that User can not be able to Login with out user name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.display an error message enter valid username
-</t>
   </si>
   <si>
     <t>Verify that User can not be able to Login with out Password</t>
@@ -436,6 +416,37 @@
   <si>
     <t>Change Address</t>
   </si>
+  <si>
+    <t>User should navigate to create an
+account page.</t>
+  </si>
+  <si>
+    <t>Verify user is not able to
+go to create an account
+page by providing inval
+id email id</t>
+  </si>
+  <si>
+    <t>User should get validation message saying invalid email id</t>
+  </si>
+  <si>
+    <t>Verify user is able to go to create
+an account page by providing 
+valid email id</t>
+  </si>
+  <si>
+    <t>Verify user is not able to
+go to create an account
+page by leaving email address field blank</t>
+  </si>
+  <si>
+    <t>User should get validation
+message saying invalid email id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.display an error message enter valid username
+</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +520,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,24 +543,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFABF8F"/>
         <bgColor rgb="FFFABF8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FFB8CCE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -691,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -718,19 +711,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +736,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,21 +753,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,8 +985,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1047,32 +1025,32 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -1105,14 +1083,14 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1126,12 +1104,12 @@
       <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1145,12 +1123,12 @@
       <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1164,12 +1142,12 @@
       <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1183,12 +1161,12 @@
       <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1202,12 +1180,12 @@
       <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1221,12 +1199,12 @@
       <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1240,12 +1218,12 @@
       <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
@@ -1258,12 +1236,12 @@
       <c r="C14" s="8">
         <v>9</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1277,12 +1255,12 @@
       <c r="C15" s="8">
         <v>10</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1298,10 +1276,10 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1317,10 +1295,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1336,10 +1314,10 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1355,10 +1333,10 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -14136,907 +14114,607 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="40" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="19" t="s">
+      <c r="C18" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="19" t="s">
+      <c r="C19" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="19" t="s">
+      <c r="C20" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="C21" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="19" t="s">
+      <c r="C22" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="19" t="s">
+      <c r="C23" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="20" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="23" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="19" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="C28" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="24" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="24" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="23" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="24" t="s">
+      <c r="B31" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="23" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="23" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="195" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="24" t="s">
+      <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="23" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="23" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" ht="225" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="24" t="s">
+      <c r="B35" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="23" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" ht="255" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="24" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="B37" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="C37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" ht="285" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="24" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="10" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="150" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
+      <c r="C39" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="20" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="C40" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="20" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="C41" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="20" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="20" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="180" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="25" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="C44" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="C45" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="25" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:9" ht="210" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="C46" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="10" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="C47" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="C48" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="10" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="C49" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="10" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="C50" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="10" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A3:I4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:C4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15062,334 +14740,334 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="31"/>
-      <c r="AD2" s="28"/>
+      <c r="A2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="27"/>
+      <c r="AD2" s="24"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="14" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="19" t="s">
+      <c r="E14" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="D15" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="19" t="s">
+      <c r="E15" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>109</v>
+      <c r="D16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="19" t="s">
+    <row r="20" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="24" t="s">
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="24" t="s">
+    <row r="22" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="23" t="s">
+    </row>
+    <row r="23" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="24" t="s">
+      <c r="D23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="23" t="s">
+    </row>
+    <row r="24" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="23" t="s">
+    </row>
+    <row r="25" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="24" t="s">
+      <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="23" t="s">
+    </row>
+    <row r="26" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="23" t="s">
+    </row>
+    <row r="27" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="24" t="s">
+      <c r="D27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="23" t="s">
+    </row>
+    <row r="28" spans="3:15" ht="225" x14ac:dyDescent="0.2">
+      <c r="C28" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="D28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E28" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="24" t="s">
+    <row r="29" spans="3:15" ht="90" x14ac:dyDescent="0.2">
+      <c r="C29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E29" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="3:15" ht="225" x14ac:dyDescent="0.2">
-      <c r="C28" s="24" t="s">
+    <row r="30" spans="3:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="C30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="E30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" ht="90" x14ac:dyDescent="0.2">
-      <c r="C29" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="C30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="20" t="s">
+    </row>
+    <row r="31" spans="3:15" ht="105" x14ac:dyDescent="0.2">
+      <c r="C31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="3:15" ht="105" x14ac:dyDescent="0.2">
-      <c r="C31" s="24" t="s">
+    <row r="32" spans="3:15" ht="45" x14ac:dyDescent="0.2">
+      <c r="C32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D32" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="C33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="C34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="C32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="E34" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="C35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="C33" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="C34" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="C35" s="24" t="s">
+    </row>
+    <row r="36" spans="3:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="C36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="C36" s="24" t="s">
-        <v>16</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -15426,190 +15104,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="27"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="27"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
+      <c r="A3" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="14" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="40" t="s">
+      <c r="C15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>37</v>
+      <c r="C17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="B18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="B19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>76</v>
+      <c r="B20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="225" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>78</v>
+      <c r="B21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15618,26 +15296,26 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>81</v>
+      <c r="B22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>89</v>
+      <c r="C23" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -15647,43 +15325,60 @@
     </row>
     <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -15696,23 +15391,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
